--- a/biology/Botanique/Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion/Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion.xlsx
+++ b/biology/Botanique/Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion/Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste répertorie par nom scientifique les espèces végétales arbustives ou arborescentes (y compris les monocotylédones et les fougères) indigènes de La Réunion, c’est-à-dire celles qui étaient présentes naturellement dans les forêts, savanes et maquis de l'île avant la colonisation humaine.
 Parmi celles-ci, certaines sont de plus endémiques de La Réunion (l'espèce n'existe naturellement qu'à La Réunion) ou seulement endémiques de l'archipel des Mascareignes (l'espèce est originellement présente à La Réunion mais aussi à l'île Maurice et/ou à Rodrigues). Elles sont repérées par un logo spécial :
@@ -525,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,7 +555,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia heterophylla - Tamarin des hauts (Fabaceae) 
 Acalypha integrifolia - Bois de Charles (Euphorbiaceae) 
@@ -569,7 +583,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,7 +601,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Badula barthesia - Bois de savon (Myrsinaceae) 
 Badula crassa (Myrsinaceae) 
@@ -608,7 +624,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -626,7 +642,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Calophyllum tacamahaca - Takamaka (Clusiaceae) 
 Casearia coriacea - Bois de cabri (Salicaceae) 
@@ -654,7 +672,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,7 +690,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictyosperma album - Palmiste blanc (Arecaceae) 
 Diospyros borbonica - Bois noir des hauts (Ebenaceae) 
@@ -703,7 +723,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -721,7 +741,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Erica arborescens - Branle filao (Ericaceae) 
 Erica reunionensis - Branle vert (Ericaceae) 
@@ -743,7 +765,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -761,7 +783,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernelia buxifolia - Bois de balai (Rubiaceae) 
 Ficus densifolia - Affouche (Moraceae) 
@@ -781,7 +805,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,7 +823,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaertnera vaginata - Losto café (Rubiaceae) 
 Gastonia cutispongia  - Bois d'éponge (Araliaceae) 
@@ -815,7 +841,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -833,7 +859,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Hernandia mascarenensis  - Bois blanc (Hernandiaceae) 
 Hibiscus boryanus  - Foulsapate marron (Malvaceae) 
@@ -853,7 +881,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +899,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Indigofera ammoxylum  - Bois de sable (Fabaceae) 
 </t>
@@ -884,7 +914,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -902,7 +932,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Labourdonnaisia calophylloides - Petit natte (Sapotaceae) 
 Latania lontaroides - Latanier rouge (Arecaceae)
@@ -916,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,7 +966,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Maillardia borbonica - Bois de maman (Moraceae) 
 Mimusops maxima - Grand natte (Sapotaceae) 
@@ -953,7 +987,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +1005,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Nastus borbonicus - Calumet (Poaceae) 
 Nuxia verticillata - Bois maigre (Scrophulariaceae) 
@@ -985,7 +1021,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1003,7 +1039,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Obetia ficifolia  - Bois d'ortie (Urticaceae) 
 Ochrosia borbonica  - Bois jaune (Apocynaceae) 
@@ -1021,7 +1059,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1039,7 +1077,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Pandanus montanus - Vacoa des montagnes, Pimpin (Pandanaceae) 
 Pandanus purpurascens - Vacoa des Hauts (Pandanaceae) 
@@ -1075,7 +1115,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1093,7 +1133,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruizia cordata  - Bois de senteur blanc (Malvaceae) 
 </t>
@@ -1106,7 +1148,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1124,11 +1166,13 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Scolopia heterophylla  - Bois de balai (Salicaceae) 
 Stoebe passerinoides - Branle blanc (Asteraceae) 
-Securinega durissima - Bois dur (Phyllanthaceae[1]) 
+Securinega durissima - Bois dur (Phyllanthaceae) 
 Sideroxylon borbonicum - Bois de fer bâtard (Sapotaceae) 
 Sideroxylon majus  - Bois de fer (Sapotaceae) 
 Sophora denudata - Petit tamarin des hauts (Fabaceae) 
@@ -1145,7 +1189,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1163,7 +1207,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabernaemontana persicariaefolia  - Bois de lait (Apocynaceae) 
 Tambourissa crassa - Bois de bombarde à grandes feuilles (Monimiaceae) 
@@ -1185,7 +1231,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1203,7 +1249,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Vepris lanceolata - Patte poule (Rutaceae) 
 Vernonia fimbrillifera - Bois de source (Asteraceae) 
@@ -1217,7 +1265,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1235,7 +1283,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Weinmannia tinctoria - Tan rouge (Cunoniaceae) 
 </t>
@@ -1248,7 +1298,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1266,7 +1316,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylopia richardii  - Bois de banane (Annonaceae) 
 </t>
@@ -1279,7 +1331,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_arbres_et_arbustes_indig%C3%A8nes_de_La_R%C3%A9union</t>
+          <t>Liste_des_arbres_et_arbustes_indigènes_de_La_Réunion</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1297,7 +1349,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum heterophyllum  - Bois de poivre (Rutaceae) 
 </t>
